--- a/Analysis/Data/Data for Tables/Site Attribute Table.xlsx
+++ b/Analysis/Data/Data for Tables/Site Attribute Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/Undergrad Thesis/Analysis/Data/Data for Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/Cedar's Undergrad Thesis/Analysis/Data/Data for Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,8 +536,7 @@
         <v>833</v>
       </c>
       <c r="C2" s="6">
-        <f>AVERAGE(4.4165,5.98)</f>
-        <v>5.1982499999999998</v>
+        <v>5.2</v>
       </c>
       <c r="D2" s="13">
         <v>21</v>
@@ -554,11 +553,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="8">
-        <v>721.2</v>
+        <v>721</v>
       </c>
       <c r="C3" s="6">
-        <f>AVERAGE(3.9687,4.2947)</f>
-        <v>4.1317000000000004</v>
+        <v>4.13</v>
       </c>
       <c r="D3" s="13">
         <v>12.5</v>
